--- a/biology/Médecine/Volume_de_distribution/Volume_de_distribution.xlsx
+++ b/biology/Médecine/Volume_de_distribution/Volume_de_distribution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le volume de distribution, ou volume apparent de distribution, est un paramètre caractérisant la distribution (voir Pharmacocinétique) de la substance active (dans un médicament) dans le corps humain. Son symbole est Vd. 
 </t>
@@ -511,7 +523,9 @@
           <t>Calcul</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On mesure la concentration sanguine de la substance active en question. Le volume de distribution est le volume dans lequel serait dissoute la quantité administrée de substance active (c'est-à-dire contenue dans le médicament) pour donner la concentration obtenue dans le compartiment sanguin. C’est un volume théorique (fictif), d'où le nom de volume de distribution apparent.  
 Le volume de distribution VD est donc défini par l'équation suivante :
@@ -645,7 +659,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le volume de distribution permet d’estimer la façon dont se distribue la molécule dans l’organisme. Si Vd est faible = 3 ou 4 litres, c’est que la molécule est peu absorbée dans les tissus, elle reste dans le sang. Quand le volume de distribution est plus important, cela peut signifier que la molécule est fortement absorbée dans les tissus, ou qu’elle est fortement métabolisée, … L’interprétation se fait selon la correspondance avec les volumes des compartiments (eau intracellulaire, …). 
 Différents facteurs font varier le volume de distribution : 
@@ -683,7 +699,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Distribution »
  Portail de la biologie   Portail de la médecine   Portail de la pharmacie                   </t>
